--- a/biology/Histoire de la zoologie et de la botanique/Edward_Lee_Greene/Edward_Lee_Greene.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Lee_Greene/Edward_Lee_Greene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Lee Greene est un botaniste américain, né le 20 août 1843 et mort le 10 novembre 1915.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est assistant puis professeur de botanique à l’université de Californie à Berkeley (1885-1895), puis à l’université catholique d'Amérique (1895-1904) et enfin associé à la Smithsonian Institution de Washington. Greene est le premier professeur de botanique de l’Université catholique (six ans après sa fondation) et y créé son premier herbier. Son herbier personnel est, pour l’essentiel, conservé à l’université de Notre-Dame-de-Grâce.
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Courte biographie de l’Institut Hung
 Arthur O. Tucker, Muriel E. Poston et Hugh H. Iltis (1989). History of the LCU herbarium, 1895-1986, Taxon, 38 (2) : 196-203.  (ISSN 0040-0262)</t>
